--- a/biology/Botanique/Badamier/Badamier.xlsx
+++ b/biology/Botanique/Badamier/Badamier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Badamiers sont des arbres tropicaux de la famille des Combretaceae, parmi les genres Terminalia ou Combretum. Les mots indiens, en marathi badāma बदाम ou  en hindi baadaam बादाम, ainsi que le mot persan bâdâm بادام, désignent une amande ; « Badamier » a ainsi littéralement le même sens qu'« Amandier ». 
 Le plus souvent, le nom « Badamier » correspond à l'espèce Terminalia catappa mais il peut s'appliquer aussi  à d'autres espèces apparentées.
@@ -515,16 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille des Combretaceae
-Combretum constrictum, Petit badamier[1], Badamier vermifuge[1] ;
-Combretum indicum, Badamier sauvage[1] ;
-Terminalia arjuna, Badamier[2], Badamier de l'Inde[3] ;
-Terminalia catappa, Badamier[1],[4],[5], Badamier de/du Malabar[6],[7] ;
-Terminalia glaucescens, Badamier glauque[1] ;
-Terminalia laxiflora, Badamier à fleurs blanches[1] ;
-Terminalia macroptera, Badamier sessile[1], Badamier du Sénégal[8].
-Famille des Lecythidaceae
-Barringtonia asiatica, Badamier de l'Inde[9]</t>
+          <t>Famille des Combretaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Combretum constrictum, Petit badamier, Badamier vermifuge ;
+Combretum indicum, Badamier sauvage ;
+Terminalia arjuna, Badamier, Badamier de l'Inde ;
+Terminalia catappa, Badamier Badamier de/du Malabar, ;
+Terminalia glaucescens, Badamier glauque ;
+Terminalia laxiflora, Badamier à fleurs blanches ;
+Terminalia macroptera, Badamier sessile, Badamier du Sénégal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Badamier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille des Lecythidaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Barringtonia asiatica, Badamier de l'Inde</t>
         </is>
       </c>
     </row>
